--- a/OutputData/Lassa/Pubmed.xlsx
+++ b/OutputData/Lassa/Pubmed.xlsx
@@ -7782,7 +7782,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>monkey (vero cells)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>monkey (vero cells)</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>guinea pigs, recombinant</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -8567,7 +8567,7 @@
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>guinea pigs, recombinant</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -9335,7 +9335,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>recombinant</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -9421,7 +9421,7 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>recombinant</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
@@ -9478,7 +9478,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>recombinant</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>recombinant</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
@@ -10601,7 +10601,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>pig</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -10676,7 +10676,7 @@
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>pig</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
@@ -10733,7 +10733,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>pig</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -10808,7 +10808,7 @@
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>pig</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
@@ -10981,7 +10981,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>mice</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -11064,7 +11064,7 @@
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>mice</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">

--- a/OutputData/Lassa/Pubmed.xlsx
+++ b/OutputData/Lassa/Pubmed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF79"/>
+  <dimension ref="A1:AJ79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,30 +566,50 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 26</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Supplemental Material</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>new Accession in Supp</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>GPT_extraction_supp</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>CleanedHost</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>CleanedSpecimen</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Specimen</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>MedianYear</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Resolve</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>LitID</t>
         </is>
@@ -723,26 +743,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr">
         <is>
           <t>Dog and Goat and Lizard</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>blood and rectal swab</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>blood and rectal swab</t>
-        </is>
-      </c>
-      <c r="AD2" t="n">
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Blood and rectal swab</t>
+        </is>
+      </c>
+      <c r="AH2" t="n">
         <v>2022</v>
       </c>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="n">
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -797,7 +825,166 @@
           <t>Guinea, Sierra Leone</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>The following GenBank accession numbers are labeled as from this study in the provided Excel file:
+OR490735
+OR490736
+OR490737
+OR490738
+OR490739
+OR490740
+OR490741
+OR490742
+OR490743
+OR490744
+OR490745
+OR490746
+OR490747
+OR490748
+OR490749
+OR490750
+OR490751
+OR490752
+OR490753
+OR490754
+OR490691
+OR490692
+OR490693
+OR490694
+OR490695
+OR490696
+OR490697
+OR490698
+OR490699
+OR490700
+OR490701
+OR490702
+OR490703
+OM735968
+OM735970
+OM735972
+OM735974
+OM735976
+OM735978
+OM735980
+OM735982
+OM735984
+OM735986
+OM735988
+OM735990
+OM791220
+OM791222
+OM791226
+OM791228
+OM791230
+OM791232
+OR490704
+OR490705
+OR490706
+OR490707
+OR490708
+OR490709
+OR490710
+OR490711
+OR490712
+OR490713
+OR490714
+OR490715
+OR490716
+OR490717
+OR490718
+OR490719
+OR490720
+OR490721
+OR490722
+OR490723
+OR490724
+OR490725
+OR490726
+OR490727
+OR490728
+OR490729
+OR490730
+OR490731
+OR490732
+OR490733
+OR490734
+OR526986
+OR526970
+OR526971
+OR526972
+OR526973
+OR526974
+OR526975
+OR526976
+OR526987
+OR526977
+OR526978
+OR526979
+OR526980
+OR526981
+OR526985
+OR526982
+OR526983
+OR526984
+OR792216
+OR792217
+OR792218
+OR792219
+OR792220
+OR792221
+OR792222
+OR792223
+OR792224
+OR792225
+OR792226
+OR792227
+OR792228
+OR792229
+OR792230
+OR792231
+OR792232
+OR792233
+OR792234Fig S1 Tree Model 3 GP+NP Colored:
+KT992416 (colored differently)
+KM822117 (colored differently)
+KM821773 (colored differently)
+KM822113 (colored differently)
+KM821800 (colored differently)
+OM735970 (colored differently)
+OM791222 (colored differently)
+OM791226 (colored differently)
+OM735984 (colored differently)
+OM791220 (colored differently)
+OM735988 (colored differently)
+MG812639 (colored differently)
+OM791230 (colored differently)
+MG812653 (colored differently)
+OM735976 (colored differently)
+Fig S2 Tree Model 6 Polymerase Colored:
+KM821811 (colored differently)
+KM821834 (colored differently)
+OM791219 (colored differently)
+KM821866 (colored differently)
+KM821855 (colored differently)
+KM821870 (colored differently)
+KM821875 (colored differently)
+KM822112 (colored differently)
+KM822114 (colored differently)
+KM822115 (colored differently)
+OM791221 (colored differently)
+OM735979 (colored differently)
+KF478761 (colored differently)
+OM791225 (colored differently)
+OM791231 (colored differently)
+OM791230 (colored differently)
+OM791229 (colored differently)
+MG812672 (colored differently)
+MG812676 (colored differently)
+MG812677 (colored differently)</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>NGS</t>
@@ -865,26 +1052,197 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>The following GenBank accession numbers are labeled as from this study in the provided Excel file:
+OR490735
+OR490736
+OR490737
+OR490738
+OR490739
+OR490740
+OR490741
+OR490742
+OR490743
+OR490744
+OR490745
+OR490746
+OR490747
+OR490748
+OR490749
+OR490750
+OR490751
+OR490752
+OR490753
+OR490754
+OR490691
+OR490692
+OR490693
+OR490694
+OR490695
+OR490696
+OR490697
+OR490698
+OR490699
+OR490700
+OR490701
+OR490702
+OR490703
+OM735968
+OM735970
+OM735972
+OM735974
+OM735976
+OM735978
+OM735980
+OM735982
+OM735984
+OM735986
+OM735988
+OM735990
+OM791220
+OM791222
+OM791226
+OM791228
+OM791230
+OM791232
+OR490704
+OR490705
+OR490706
+OR490707
+OR490708
+OR490709
+OR490710
+OR490711
+OR490712
+OR490713
+OR490714
+OR490715
+OR490716
+OR490717
+OR490718
+OR490719
+OR490720
+OR490721
+OR490722
+OR490723
+OR490724
+OR490725
+OR490726
+OR490727
+OR490728
+OR490729
+OR490730
+OR490731
+OR490732
+OR490733
+OR490734
+OR526986
+OR526970
+OR526971
+OR526972
+OR526973
+OR526974
+OR526975
+OR526976
+OR526987
+OR526977
+OR526978
+OR526979
+OR526980
+OR526981
+OR526985
+OR526982
+OR526983
+OR526984
+OR792216
+OR792217
+OR792218
+OR792219
+OR792220
+OR792221
+OR792222
+OR792223
+OR792224
+OR792225
+OR792226
+OR792227
+OR792228
+OR792229
+OR792230
+OR792231
+OR792232
+OR792233
+OR792234Fig S1 Tree Model 3 GP+NP Colored:
+KT992416 (colored differently)
+KM822117 (colored differently)
+KM821773 (colored differently)
+KM822113 (colored differently)
+KM821800 (colored differently)
+OM735970 (colored differently)
+OM791222 (colored differently)
+OM791226 (colored differently)
+OM735984 (colored differently)
+OM791220 (colored differently)
+OM735988 (colored differently)
+MG812639 (colored differently)
+OM791230 (colored differently)
+MG812653 (colored differently)
+OM735976 (colored differently)
+Fig S2 Tree Model 6 Polymerase Colored:
+KM821811 (colored differently)
+KM821834 (colored differently)
+OM791219 (colored differently)
+KM821866 (colored differently)
+KM821855 (colored differently)
+KM821870 (colored differently)
+KM821875 (colored differently)
+KM822112 (colored differently)
+KM822114 (colored differently)
+KM822115 (colored differently)
+OM791221 (colored differently)
+OM735979 (colored differently)
+KF478761 (colored differently)
+OM791225 (colored differently)
+OM791231 (colored differently)
+OM791230 (colored differently)
+OM791229 (colored differently)
+MG812672 (colored differently)
+MG812676 (colored differently)
+MG812677 (colored differently)</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
         <is>
           <t>Rodent</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>blood and liver and lung and spleen</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>blood and liver and lung and spleen</t>
-        </is>
-      </c>
-      <c r="AD3" t="n">
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>Blood and liver and lung and spleen</t>
+        </is>
+      </c>
+      <c r="AH3" t="n">
         <v>2012</v>
       </c>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="n">
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -939,7 +1297,12 @@
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>PRJNA824010: Contains the short read datasets and LASV genomes.
+PRJNA436552: Includes additional genomes deposited in GenBank</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>NGS</t>
@@ -999,26 +1362,39 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>PRJNA824010: Contains the short read datasets and LASV genomes.
+PRJNA436552: Includes additional genomes deposited in GenBank</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD4" t="n">
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH4" t="n">
         <v>2018</v>
       </c>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="n">
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1075,7 +1451,59 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>OQ556910 to OQ557079</t>
+          <t>Here are the GenBank accession numbers from the study found in Supplementary Material IIA:
+GU481074
+GU481076
+GU481078
+MK107907
+MK107908
+MK107909
+MK107913
+MK107915
+MK107916
+MK107936
+MK107938
+MK107948
+MK107950
+MK107957
+MK107964
+MK117861
+MK117865
+MK117948
+MK117949
+MK117951
+MK117954
+MK117958
+MK117959
+MK117962
+MK117963
+MK117964
+MK117965
+MK117966
+MK117972
+MK117976
+MK117982
+MK117983
+MK117984
+MK117985
+MK117986
+MK117987
+MK117988
+MK117990
+MK117991
+MK117998
+MK117999
+MK118007
+MK118008
+MK118009
+MK118014
+MK118015
+MK118021
+MK118022
+MK118024
+MK118033
+MK118035
+MK118039</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1145,26 +1573,94 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Contains list of seq downloaded from GB</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Here are the GenBank accession numbers from the study found in Supplementary Material IIA:
+GU481074
+GU481076
+GU481078
+MK107907
+MK107908
+MK107909
+MK107913
+MK107915
+MK107916
+MK107936
+MK107938
+MK107948
+MK107950
+MK107957
+MK107964
+MK117861
+MK117865
+MK117948
+MK117949
+MK117951
+MK117954
+MK117958
+MK117959
+MK117962
+MK117963
+MK117964
+MK117965
+MK117966
+MK117972
+MK117976
+MK117982
+MK117983
+MK117984
+MK117985
+MK117986
+MK117987
+MK117988
+MK117990
+MK117991
+MK117998
+MK117999
+MK118007
+MK118008
+MK118009
+MK118014
+MK118015
+MK118021
+MK118022
+MK118024
+MK118033
+MK118035
+MK118039</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
         <is>
           <t>Rodent</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>kidney and liver and spleen</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>kidney and liver and spleen</t>
-        </is>
-      </c>
-      <c r="AD5" t="n">
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>Kidney and liver and spleen</t>
+        </is>
+      </c>
+      <c r="AH5" t="n">
         <v>2016</v>
       </c>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="n">
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1221,7 +1717,80 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>OM735989–OM735976, OM791219–OM791232</t>
+          <t>AY179172
+JN650518
+KM821772
+KM821774
+KM821776
+KM821778
+KM821780
+KM821782
+KM821784
+KM821786
+KM821788
+KM821791
+KM821793
+KM821795
+KM821799
+KM821801
+KM821803
+KM821805
+KM821807
+KM821809
+KM821811
+KM821813
+KM821817
+KM821819
+KM821821
+KM821823
+KM821825
+KM821827
+KM821829
+KM821831
+KM821834
+KM821836
+KM821838
+KM821840
+KM821842
+KM821844
+KM821846
+KM821837
+KM821839
+KM821856
+KM821874
+KM821882
+KM821900
+NC_004296
+KM821902
+MW039390
+MW039388
+MW039389
+MW039391
+KM822126
+OM735988
+OM735986
+OM735984
+OM735982
+OM735980
+OM735978
+OM735976
+OM735972
+OM735968
+OM791220
+OM791222
+OM791228
+OM791230
+OM791232
+KM822117
+KM822113
+KM822122
+KM822111
+KM822118
+KM822115
+KM822132
+KM822130
+KM822120
+KM822124</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1291,26 +1860,115 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Contains list of seq downloaded from GB</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>AY179172
+JN650518
+KM821772
+KM821774
+KM821776
+KM821778
+KM821780
+KM821782
+KM821784
+KM821786
+KM821788
+KM821791
+KM821793
+KM821795
+KM821799
+KM821801
+KM821803
+KM821805
+KM821807
+KM821809
+KM821811
+KM821813
+KM821817
+KM821819
+KM821821
+KM821823
+KM821825
+KM821827
+KM821829
+KM821831
+KM821834
+KM821836
+KM821838
+KM821840
+KM821842
+KM821844
+KM821846
+KM821837
+KM821839
+KM821856
+KM821874
+KM821882
+KM821900
+NC_004296
+KM821902
+MW039390
+MW039388
+MW039389
+MW039391
+KM822126
+OM735988
+OM735986
+OM735984
+OM735982
+OM735980
+OM735978
+OM735976
+OM735972
+OM735968
+OM791220
+OM791222
+OM791228
+OM791230
+OM791232
+KM822117
+KM822113
+KM822122
+KM822111
+KM822118
+KM822115
+KM822132
+KM822130
+KM822120
+KM822124</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
         <is>
           <t>Homo sapiens and Rodent</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD6" t="n">
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH6" t="n">
         <v>2014</v>
       </c>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="n">
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1433,26 +2091,45 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Contains list of seq downloaded from GB</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>MW776596
+MW776597
+MW776598
+MW776599</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
         <is>
           <t>Rodent</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AD7" t="n">
+      <c r="AH7" t="n">
         <v>2019</v>
       </c>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="n">
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1579,26 +2256,46 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>MW030681
+MW030682
+MW030683
+MW030684
+MW039388</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
         <is>
           <t>Rodent</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>liver and tissue</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>liver and tissue</t>
-        </is>
-      </c>
-      <c r="AD8" t="n">
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>Liver and tissue</t>
+        </is>
+      </c>
+      <c r="AH8" t="n">
         <v>2015</v>
       </c>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="n">
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1729,26 +2426,67 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Contains list of seq downloaded from GB</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>The GenBank accession numbers where the reference is "this study" are:
+MT193277
+MT193278
+MT193279
+MT193280
+MT193281
+MT193282
+MT193283
+MT193284
+MT193285
+MT193286
+MT193287
+MT193288
+MT199226
+MT199227
+MT199228
+MT199229
+MT199230
+MT199231
+MT199232
+MT199233
+MT199234
+MT199235
+MT248262
+MT248263
+MT248264</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD9" t="n">
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH9" t="n">
         <v>2015</v>
       </c>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="n">
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1875,26 +2613,137 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Contains list of seq downloaded from GB</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>The GenBank accession numbers categorized as "this study" in the provided Excel file are as follows:
+MT119462
+MT119463
+MT119464
+MT119465
+MT119466
+MT119467
+MT119468
+MT119469
+MT119470
+MT119471
+MT119472
+MT119473
+MT119474
+MT119475
+MT119476
+MT119477
+MT119478
+MT119479
+MT119480
+MT119481
+MT119482
+MT119483
+MT119484
+MT119485
+MT119486
+MT119487
+MT119488
+MT119489
+MT119490
+MT119491
+MT119492
+MT119493
+MT119494
+MT119495
+MT119496
+MT119497
+MT119498
+MT119499
+MT119500
+MT119501
+MT119502
+MT119503
+MT119504
+MT119505
+MT119506
+MT119507
+MT119508
+MT119509
+MT119510
+MT119511
+MT119512
+MT119513
+MT119514
+MT119515
+MT119516
+MT119517
+MT119518
+MT119519
+MT119520
+MT119521
+MT119522
+MT119523
+MT119524
+MT119525
+MT119526
+MT119527
+MT119528
+MT119529
+MT119530
+MT119531
+MT119532
+MT119533
+MT119534
+MT119535
+MT119536
+MT119537
+MT119538
+MT119539
+MT119540
+MT119541
+MT119542
+MT119543
+MT119544
+MT119545
+MT119546
+MT119547
+MT119548
+MT119549
+MT119550
+MT119551
+MT119552
+MT119553
+MT119554
+MT119555
+MT119556</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
         <is>
           <t>Rodent</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD10" t="n">
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH10" t="n">
         <v>2015</v>
       </c>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="n">
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2017,26 +2866,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD11" t="n">
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH11" t="n">
         <v>2018</v>
       </c>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="n">
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2163,26 +3020,52 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Contains list of seq downloaded from GB</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>The GenBank accession numbers extracted from the tables are as follows:
+From Table S2 (rodent sequences):
+KT992425
+MN123651
+MN123652
+DQ832692
+DQ832694
+From Table S3 (human sequences):
+AF246121
+KU978807
+AY628201</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
         <is>
           <t>Homo sapiens and Rodent</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>tissue</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>tissue</t>
-        </is>
-      </c>
-      <c r="AD12" t="n">
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>Tissue</t>
+        </is>
+      </c>
+      <c r="AH12" t="n">
         <v>2014</v>
       </c>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="n">
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2309,26 +3192,57 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>MG812649, MG812648 (L-protein, S-protein) – Liberia 1972
+MG812646, MG812647 (L-protein, S-protein) – Sierra Leone 1975
+MG812644, MG812645 (L-protein, S-protein) – Guinea 1981
+MG812642, MG812643 (L-protein, S-protein) – Sierra Leone 1979
+MG812640, MG812641 (L-protein, S-protein) – Nigeria 1989
+MG812638, MG812639 (L-protein, S-protein) – Sierra Leone 1977
+MG812637, MG812636 (L-protein, S-protein) – Liberia 1981
+MG812634, MG812635 (L-protein, S-protein) – Nigeria 1981
+MG812633, MG812632 (L-protein, S-protein) – Liberia 1981
+MG812672, MG812673 (L-protein, S-protein) – Liberia 2017
+MH215278, MH215279 (L-protein, S-protein) – Liberia 2018
+MH215280, MH215281 (L-protein, S-protein) – Liberia 2018
+MH215282, MH215283 (L-protein, S-protein) – Liberia 2018
+MH215284, MH215285 (L-protein, S-protein) – Liberia 2018
+MH215286, MH215287 (L-protein, S-protein) – Liberia 2018
+MH215288, MH215289 (L-protein, S-protein) – Liberia 2018</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD13" t="n">
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH13" t="n">
         <v>2014</v>
       </c>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="n">
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2451,26 +3365,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD14" t="n">
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH14" t="n">
         <v>2015</v>
       </c>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="n">
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2527,7 +3449,267 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>NCBI BioProject accession numbers PRJNA482054 and PRJNA482058</t>
+          <t>NCBI BioProject accession numbers PRJNA482054 and PRJNA482058, "MK107897.1
+MK107958.1
+MK107960.1
+MK107966.1
+MK107967.1
+MK107973.1
+MK107971.1
+MK107972.1
+MK107898.1
+MK107963.1
+MK107965.1
+MK107968.1
+MK107970.1
+MK107961.1
+MK107964.1
+MK107962.1
+MK107901.1
+MK107974.1
+MK107946.1
+MK107976.1
+MK107975.1
+MK107899.1
+MK107945.1
+MK107900.1
+MK107910.1
+MK107947.1
+MK107948.1
+MK107902.1
+MK107907.1
+MK107908.1
+MK107909.1
+MK107951.1
+MK107978.1
+MK107982.1
+MK107979.1
+MK107981.1
+MK107950.1
+MK107952.1
+MK107912.1
+MK107911.1
+MK107913.1
+MK107915.1
+MK107916.1
+MK107980.1
+MK107914.1
+MK107949.1
+MK107940.1
+MK107942.1
+MK107953.1
+MK107927.1
+MK107922.1
+MK107931.1
+MK107939.1
+MK107941.1
+MK107932.1
+MK107917.1
+MK107928.1
+MK107918.1
+MK107933.1
+MK107930.1
+MK107936.1
+MK107923.1
+MK107919.1
+MK107935.1
+MK107924.1
+MK107955.1
+MK107929.1
+MK107956.1
+MK107921.1
+MK107925.1
+MK107926.1
+MK107920.1
+MK107938.1
+MK107957.1
+MK107954.1
+MK107934.1
+MK107937.1
+MK117846.1
+MK117847.1
+MK117848.1
+MK117849.1
+MK117850.1
+MK117851.1
+MK117948.1
+MK117949.1
+MK117950.1
+MK117951.1
+MK117952.1
+MK117953.1
+MK117954.1
+MK117955.1
+MK117956.1
+MK117957.1
+MK117958.1
+MK117959.1
+MK117960.1
+MK117961.1
+MK117962.1
+MK117963.1
+MK117964.1
+MK117965.1
+MK117966.1
+MK117967.1
+MK117968.1
+MK117969.1
+MK117970.1
+MK117971.1
+MK117972.1
+MK117973.1
+MK117974.1
+MK117975.1
+MK117976.1
+MK117977.1
+MK117978.1
+MK117979.1
+MK117980.1
+MK117981.1
+MK117982.1
+MK117983.1
+MK117984.1
+MK117985.1
+MK117986.1
+MK117987.1
+MK117988.1
+MK117989.1
+MK117990.1
+MK117991.1
+MK117992.1
+MK117993.1
+MK117994.1
+MK117995.1
+MK117996.1
+MK117997.1
+MK117998.1
+MK117999.1
+MK118000.1
+MK118001.1
+MK118002.1
+MK118003.1
+MK118004.1
+MK118005.1
+MK118006.1
+MK118007.1
+MK118008.1
+MK118009.1
+MK118010.1
+MK118011.1
+MK118012.1
+MK118013.1
+MK118014.1
+MK118015.1
+MK118016.1
+MK118017.1
+MK118018.1
+MK118019.1
+MK118020.1
+MK118021.1
+MK118022.1
+MK118023.1
+MK118024.1
+MK118025.1
+MK118026.1
+MK118027.1
+MK118028.1
+MK118029.1
+MK118030.1
+MK118031.1
+MK118032.1
+MK118033.1
+MK118034.1
+MK118035.1
+MK118036.1
+MK118037.1
+MK118038.1
+MK118039.1
+AF333969.1
+X52400.1
+AF182232.1
+AF182229.1
+AF182230.1
+AF181854.1
+AF182221.1
+AF182224.1
+AF182225.1
+AF182226.1
+AF182228.1
+AF182222.1
+AF182272.1
+GU481056.1
+HM143866.1
+GU481060.1
+GU481063.1
+GU481066.1
+GU481068.1
+GU481070.1
+GU481072.1
+GU481074.1
+GU481076.1
+GU481078.1
+JN651370.1
+JN651374.1
+JN651399.1
+JN651400.1
+AJ969405.1
+KM822128.1
+KT992425.1
+KT992438.1
+KT992439.1
+KT992436.1
+KT992437.1
+KT992422.1
+KT992423.1
+KT992424.1
+MK107842.1
+MK107890.1
+MK107892.1
+MK107843.1
+MK107895.1
+MK107893.1
+MK107896.1
+MK107894.1
+MK107846.1
+MK107844.1
+MK107845.1
+MK107855.1
+MK107847.1
+MK107852.1
+MK107853.1
+MK107854.1
+MK107857.1
+MK107856.1
+MK107858.1
+MK107860.1
+MK107861.1
+MK107859.1
+MK107885.1
+MK107887.1
+MK107872.1
+MK107867.1
+MK107876.1
+MK107884.1
+MK107886.1
+MK107877.1
+MK107862.1
+MK107873.1
+MK107863.1
+MK107878.1
+MK107875.1
+MK107881.1
+MK107868.1
+MK107864.1
+MK107880.1
+MK107869.1
+MK107874.1
+MK107866.1
+MK107870.1
+MK107871.1
+MK107865.1
+MK107883.1
+MK107879.1
+MK107882.1"</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2597,26 +3779,302 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr">
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>MK107897.1
+MK107958.1
+MK107960.1
+MK107966.1
+MK107967.1
+MK107973.1
+MK107971.1
+MK107972.1
+MK107898.1
+MK107963.1
+MK107965.1
+MK107968.1
+MK107970.1
+MK107961.1
+MK107964.1
+MK107962.1
+MK107901.1
+MK107974.1
+MK107946.1
+MK107976.1
+MK107975.1
+MK107899.1
+MK107945.1
+MK107900.1
+MK107910.1
+MK107947.1
+MK107948.1
+MK107902.1
+MK107907.1
+MK107908.1
+MK107909.1
+MK107951.1
+MK107978.1
+MK107982.1
+MK107979.1
+MK107981.1
+MK107950.1
+MK107952.1
+MK107912.1
+MK107911.1
+MK107913.1
+MK107915.1
+MK107916.1
+MK107980.1
+MK107914.1
+MK107949.1
+MK107940.1
+MK107942.1
+MK107953.1
+MK107927.1
+MK107922.1
+MK107931.1
+MK107939.1
+MK107941.1
+MK107932.1
+MK107917.1
+MK107928.1
+MK107918.1
+MK107933.1
+MK107930.1
+MK107936.1
+MK107923.1
+MK107919.1
+MK107935.1
+MK107924.1
+MK107955.1
+MK107929.1
+MK107956.1
+MK107921.1
+MK107925.1
+MK107926.1
+MK107920.1
+MK107938.1
+MK107957.1
+MK107954.1
+MK107934.1
+MK107937.1
+MK117846.1
+MK117847.1
+MK117848.1
+MK117849.1
+MK117850.1
+MK117851.1
+MK117948.1
+MK117949.1
+MK117950.1
+MK117951.1
+MK117952.1
+MK117953.1
+MK117954.1
+MK117955.1
+MK117956.1
+MK117957.1
+MK117958.1
+MK117959.1
+MK117960.1
+MK117961.1
+MK117962.1
+MK117963.1
+MK117964.1
+MK117965.1
+MK117966.1
+MK117967.1
+MK117968.1
+MK117969.1
+MK117970.1
+MK117971.1
+MK117972.1
+MK117973.1
+MK117974.1
+MK117975.1
+MK117976.1
+MK117977.1
+MK117978.1
+MK117979.1
+MK117980.1
+MK117981.1
+MK117982.1
+MK117983.1
+MK117984.1
+MK117985.1
+MK117986.1
+MK117987.1
+MK117988.1
+MK117989.1
+MK117990.1
+MK117991.1
+MK117992.1
+MK117993.1
+MK117994.1
+MK117995.1
+MK117996.1
+MK117997.1
+MK117998.1
+MK117999.1
+MK118000.1
+MK118001.1
+MK118002.1
+MK118003.1
+MK118004.1
+MK118005.1
+MK118006.1
+MK118007.1
+MK118008.1
+MK118009.1
+MK118010.1
+MK118011.1
+MK118012.1
+MK118013.1
+MK118014.1
+MK118015.1
+MK118016.1
+MK118017.1
+MK118018.1
+MK118019.1
+MK118020.1
+MK118021.1
+MK118022.1
+MK118023.1
+MK118024.1
+MK118025.1
+MK118026.1
+MK118027.1
+MK118028.1
+MK118029.1
+MK118030.1
+MK118031.1
+MK118032.1
+MK118033.1
+MK118034.1
+MK118035.1
+MK118036.1
+MK118037.1
+MK118038.1
+MK118039.1
+AF333969.1
+X52400.1
+AF182232.1
+AF182229.1
+AF182230.1
+AF181854.1
+AF182221.1
+AF182224.1
+AF182225.1
+AF182226.1
+AF182228.1
+AF182222.1
+AF182272.1
+GU481056.1
+HM143866.1
+GU481060.1
+GU481063.1
+GU481066.1
+GU481068.1
+GU481070.1
+GU481072.1
+GU481074.1
+GU481076.1
+GU481078.1
+JN651370.1
+JN651374.1
+JN651399.1
+JN651400.1
+AJ969405.1
+KM822128.1
+KT992425.1
+KT992438.1
+KT992439.1
+KT992436.1
+KT992437.1
+KT992422.1
+KT992423.1
+KT992424.1
+MK107842.1
+MK107890.1
+MK107892.1
+MK107843.1
+MK107895.1
+MK107893.1
+MK107896.1
+MK107894.1
+MK107846.1
+MK107844.1
+MK107845.1
+MK107855.1
+MK107847.1
+MK107852.1
+MK107853.1
+MK107854.1
+MK107857.1
+MK107856.1
+MK107858.1
+MK107860.1
+MK107861.1
+MK107859.1
+MK107885.1
+MK107887.1
+MK107872.1
+MK107867.1
+MK107876.1
+MK107884.1
+MK107886.1
+MK107877.1
+MK107862.1
+MK107873.1
+MK107863.1
+MK107878.1
+MK107875.1
+MK107881.1
+MK107868.1
+MK107864.1
+MK107880.1
+MK107869.1
+MK107874.1
+MK107866.1
+MK107870.1
+MK107871.1
+MK107865.1
+MK107883.1
+MK107879.1
+MK107882.1</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD15" t="n">
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH15" t="n">
         <v>1994</v>
       </c>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="n">
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2743,26 +4201,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr">
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr">
         <is>
           <t>Rodent</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>blood and tissue</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>blood and tissue</t>
-        </is>
-      </c>
-      <c r="AD16" t="n">
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>Blood and tissue</t>
+        </is>
+      </c>
+      <c r="AH16" t="n">
         <v>2016</v>
       </c>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="n">
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="n">
         <v>15</v>
       </c>
     </row>
@@ -2819,7 +4285,164 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>The GenBank accession numbers are listed under BioProject PRJNA482058</t>
+          <t>MK107842
+MK107843
+MK107890
+MK107891
+MK107892
+MK107844
+MK107845
+MK107846
+MK107893
+MK107894
+MK107895
+MK107896
+MK107847
+MK107848
+MK107849
+MK107850
+MK107851
+MK107852
+MK107853
+MK107854
+MK107855
+MK107856
+MK107857
+MK107858
+MK107859
+MK107860
+MK107861
+MK107862
+MK107863
+MK107864
+MK107865
+MK107866
+MK107867
+MK107868
+MK107869
+MK107870
+MK107871
+MK107873
+MK107874
+MK107875
+MK107876
+MK107877
+MK107878
+MK107879
+MK107880
+MK107881
+MK107882
+MK107883
+MK107884
+MK107885
+MK107886
+MK107887
+MK107888
+MK107889
+MK117826
+MK117827
+MK117828
+MK117829
+MK117830
+MK117831
+MK117866
+MK117867
+MK117868
+MK107897
+MK107898
+MK107971
+MK107972
+MK107973
+MK107958
+MK107959
+MK107960
+MK107966
+MK107967
+MK107969
+MK107899
+MK107900
+MK107901
+MK107945
+MK107946
+MK107974
+MK107975
+MK107976
+MK107977
+MK107961
+MK107962
+MK107963
+MK107964
+MK107965
+MK107968
+MK107970
+MK107902
+MK107903
+MK107904
+MK107905
+MK107906
+MK107907
+MK107908
+MK107909
+MK107910
+MK107947
+MK107948
+MK107911
+MK107912
+MK107913
+MK107914
+MK107915
+MK107916
+MK107949
+MK107950
+MK107951
+MK107952
+MK107978
+MK107979
+MK107980
+MK107981
+MK107982
+MK107917
+MK107918
+MK107919
+MK107920
+MK107921
+MK107922
+MK107923
+MK107924
+MK107925
+MK107926
+MK107928
+MK107929
+MK107930
+MK107931
+MK107932
+MK107933
+MK107934
+MK107935
+MK107936
+MK107937
+MK107938
+MK107939
+MK107940
+MK107941
+MK107942
+MK107953
+MK107954
+MK107955
+MK107956
+MK107957
+MK107943
+MK107944
+MK117846
+MK117847
+MK117848
+MK117849
+MK117850
+MK117851
+MK117948
+MK117949
+MK117950
+MK117951 ​</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2889,26 +4512,199 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr">
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>MK107842
+MK107843
+MK107890
+MK107891
+MK107892
+MK107844
+MK107845
+MK107846
+MK107893
+MK107894
+MK107895
+MK107896
+MK107847
+MK107848
+MK107849
+MK107850
+MK107851
+MK107852
+MK107853
+MK107854
+MK107855
+MK107856
+MK107857
+MK107858
+MK107859
+MK107860
+MK107861
+MK107862
+MK107863
+MK107864
+MK107865
+MK107866
+MK107867
+MK107868
+MK107869
+MK107870
+MK107871
+MK107873
+MK107874
+MK107875
+MK107876
+MK107877
+MK107878
+MK107879
+MK107880
+MK107881
+MK107882
+MK107883
+MK107884
+MK107885
+MK107886
+MK107887
+MK107888
+MK107889
+MK117826
+MK117827
+MK117828
+MK117829
+MK117830
+MK117831
+MK117866
+MK117867
+MK117868
+MK107897
+MK107898
+MK107971
+MK107972
+MK107973
+MK107958
+MK107959
+MK107960
+MK107966
+MK107967
+MK107969
+MK107899
+MK107900
+MK107901
+MK107945
+MK107946
+MK107974
+MK107975
+MK107976
+MK107977
+MK107961
+MK107962
+MK107963
+MK107964
+MK107965
+MK107968
+MK107970
+MK107902
+MK107903
+MK107904
+MK107905
+MK107906
+MK107907
+MK107908
+MK107909
+MK107910
+MK107947
+MK107948
+MK107911
+MK107912
+MK107913
+MK107914
+MK107915
+MK107916
+MK107949
+MK107950
+MK107951
+MK107952
+MK107978
+MK107979
+MK107980
+MK107981
+MK107982
+MK107917
+MK107918
+MK107919
+MK107920
+MK107921
+MK107922
+MK107923
+MK107924
+MK107925
+MK107926
+MK107928
+MK107929
+MK107930
+MK107931
+MK107932
+MK107933
+MK107934
+MK107935
+MK107936
+MK107937
+MK107938
+MK107939
+MK107940
+MK107941
+MK107942
+MK107953
+MK107954
+MK107955
+MK107956
+MK107957
+MK107943
+MK107944
+MK117846
+MK117847
+MK117848
+MK117849
+MK117850
+MK117851
+MK117948
+MK117949
+MK117950
+MK117951 ​</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AG17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AD17" t="n">
+      <c r="AH17" t="n">
         <v>2018</v>
       </c>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="n">
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2963,7 +4759,50 @@
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>LC388575
+LC388576
+LC387468
+LC387469
+LC388577
+LC388578
+LC387470
+LC387471
+LC388579
+LC388580
+LC387472
+LC387473
+LC387474
+LC387475
+LC387476
+LC387477
+LC388581
+LC388582
+LC387478
+LC387479
+LC388583
+LC388584
+LC387480
+LC387481
+LC388585
+LC388586
+LC388587
+LC388588
+LC388589
+LC388590
+LC387482
+LC387483
+LC388591
+LC388592
+LC387484
+LC387485
+LC387486
+LC387487
+LC387488
+LC387489</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>Sanger</t>
@@ -3031,26 +4870,81 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr">
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>LC388575
+LC388576
+LC387468
+LC387469
+LC388577
+LC388578
+LC387470
+LC387471
+LC388579
+LC388580
+LC387472
+LC387473
+LC387474
+LC387475
+LC387476
+LC387477
+LC388581
+LC388582
+LC387478
+LC387479
+LC388583
+LC388584
+LC387480
+LC387481
+LC388585
+LC388586
+LC388587
+LC388588
+LC388589
+LC388590
+LC387482
+LC387483
+LC388591
+LC388592
+LC387484
+LC387485
+LC387486
+LC387487
+LC387488
+LC387489</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD18" t="n">
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH18" t="n">
         <v>2014</v>
       </c>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="n">
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="n">
         <v>17</v>
       </c>
     </row>
@@ -3107,7 +5001,32 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>The genomes were deposited under BioProject accession number PRJNA436552.</t>
+          <t>MH157043
+MH157046
+MH157049
+MH157035
+MH157048
+MH157044
+MH157039
+MH157053
+MH157028
+MH157042
+MH157032
+MH157029
+MH157038
+MH157030
+MH157047
+MH157037
+MH157036
+MH157034
+MH157033
+MH157045
+MH157040
+MH157041
+MH157051
+MH157052
+MH157031
+MH157050</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -3177,26 +5096,67 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr">
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>MH157043
+MH157046
+MH157049
+MH157035
+MH157048
+MH157044
+MH157039
+MH157053
+MH157028
+MH157042
+MH157032
+MH157029
+MH157038
+MH157030
+MH157047
+MH157037
+MH157036
+MH157034
+MH157033
+MH157045
+MH157040
+MH157041
+MH157051
+MH157052
+MH157031
+MH157050</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
+      <c r="AF19" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD19" t="n">
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH19" t="n">
         <v>2016</v>
       </c>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="n">
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="n">
         <v>18</v>
       </c>
     </row>
@@ -3323,26 +5283,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr">
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
+      <c r="AF20" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AG20" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AD20" t="n">
+      <c r="AH20" t="n">
         <v>2016</v>
       </c>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="n">
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="n">
         <v>19</v>
       </c>
     </row>
@@ -3469,26 +5437,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA21" t="inlineStr">
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
+      <c r="AF21" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD21" t="n">
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH21" t="n">
         <v>2016</v>
       </c>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="n">
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3615,26 +5591,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA22" t="inlineStr">
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr">
         <is>
           <t>Rodent</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
+      <c r="AF22" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD22" t="n">
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH22" t="n">
         <v>2011</v>
       </c>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="n">
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="n">
         <v>21</v>
       </c>
     </row>
@@ -3761,26 +5745,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA23" t="inlineStr">
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
+      <c r="AF23" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD23" t="n">
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH23" t="n">
         <v>2013</v>
       </c>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="n">
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="n">
         <v>22</v>
       </c>
     </row>
@@ -3908,26 +5900,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA24" t="inlineStr">
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr">
         <is>
           <t>Rodent</t>
         </is>
       </c>
-      <c r="AB24" t="inlineStr">
+      <c r="AF24" t="inlineStr">
         <is>
           <t>blood and tissue</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>blood and tissue</t>
-        </is>
-      </c>
-      <c r="AD24" t="n">
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>Blood and tissue</t>
+        </is>
+      </c>
+      <c r="AH24" t="n">
         <v>2012</v>
       </c>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="n">
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="n">
         <v>23</v>
       </c>
     </row>
@@ -3984,7 +5984,138 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>KP339050–KP339133 and KT833175–KT833222</t>
+          <t>KP339050
+KP339051
+KP339052
+KP339053
+KP339054
+KP339055
+KP339056
+KP339057
+KP339058
+KP339059
+KP339060
+KP339061
+KP339062
+KP339063
+KP339064
+KP339065
+KP339066
+KP339067
+KP339068
+KP339069
+KP339070
+KP339071
+KP339072
+KP339073
+KP339074
+KP339075
+KP339076
+KP339077
+KP339078
+KP339079
+KP339080
+KP339081
+KP339082
+KP339083
+KP339084
+KP339085
+KP339086
+KP339087
+KP339088
+KP339089
+KP339090
+KP339091
+KP339092
+KP339093
+KP339094
+KP339095
+KP339096
+KP339097
+KP339098
+KP339099
+KP339100
+KP339101
+KP339102
+KP339103
+KP339104
+KP339105
+KP339106
+KP339107
+KP339108
+KP339109
+KP339110
+KP339111
+KP339112
+KP339113
+KP339114
+KP339115
+KP339116
+KP339117
+KP339118
+KP339119
+KP339120
+KP339121
+KP339122
+KP339123
+KP339124
+KP339125
+KP339126
+KP339127
+KP339128
+KP339129
+KP339130
+KP339131
+KP339132
+KP339133
+KT833175
+KT833176
+KT833177
+KT833178
+KT833179
+KT833180
+KT833181
+KT833182
+KT833183
+KT833184
+KT833185
+KT833186
+KT833187
+KT833188
+KT833189
+KT833190
+KT833191
+KT833192
+KT833193
+KT833194
+KT833195
+KT833196
+KT833197
+KT833198
+KT833199
+KT833200
+KT833201
+KT833202
+KT833203
+KT833204
+KT833205
+KT833206
+KT833207
+KT833208
+KT833209
+KT833210
+KT833211
+KT833212
+KT833213
+KT833214
+KT833215
+KT833216
+KT833217
+KT833218
+KT833219
+KT833220
+KT833221
+KT833222</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -4054,26 +6185,173 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA25" t="inlineStr">
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Yes - also mentioned in paper</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>KP339050
+KP339051
+KP339052
+KP339053
+KP339054
+KP339055
+KP339056
+KP339057
+KP339058
+KP339059
+KP339060
+KP339061
+KP339062
+KP339063
+KP339064
+KP339065
+KP339066
+KP339067
+KP339068
+KP339069
+KP339070
+KP339071
+KP339072
+KP339073
+KP339074
+KP339075
+KP339076
+KP339077
+KP339078
+KP339079
+KP339080
+KP339081
+KP339082
+KP339083
+KP339084
+KP339085
+KP339086
+KP339087
+KP339088
+KP339089
+KP339090
+KP339091
+KP339092
+KP339093
+KP339094
+KP339095
+KP339096
+KP339097
+KP339098
+KP339099
+KP339100
+KP339101
+KP339102
+KP339103
+KP339104
+KP339105
+KP339106
+KP339107
+KP339108
+KP339109
+KP339110
+KP339111
+KP339112
+KP339113
+KP339114
+KP339115
+KP339116
+KP339117
+KP339118
+KP339119
+KP339120
+KP339121
+KP339122
+KP339123
+KP339124
+KP339125
+KP339126
+KP339127
+KP339128
+KP339129
+KP339130
+KP339131
+KP339132
+KP339133
+KT833175
+KT833176
+KT833177
+KT833178
+KT833179
+KT833180
+KT833181
+KT833182
+KT833183
+KT833184
+KT833185
+KT833186
+KT833187
+KT833188
+KT833189
+KT833190
+KT833191
+KT833192
+KT833193
+KT833194
+KT833195
+KT833196
+KT833197
+KT833198
+KT833199
+KT833200
+KT833201
+KT833202
+KT833203
+KT833204
+KT833205
+KT833206
+KT833207
+KT833208
+KT833209
+KT833210
+KT833211
+KT833212
+KT833213
+KT833214
+KT833215
+KT833216
+KT833217
+KT833218
+KT833219
+KT833220
+KT833221
+KT833222</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
         <is>
           <t>Rodent</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
+      <c r="AF25" t="inlineStr">
         <is>
           <t>tissue</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>tissue</t>
-        </is>
-      </c>
-      <c r="AD25" t="n">
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>Tissue</t>
+        </is>
+      </c>
+      <c r="AH25" t="n">
         <v>2008</v>
       </c>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="n">
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="n">
         <v>24</v>
       </c>
     </row>
@@ -4130,9 +6408,27 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Examples of GenBank accession numbers include:
-L segment: KM821999.1, KM822000.1
-S segment: GU481077.1, GU481078.1​</t>
+          <t>KM821834 / KM821835
+KM821836 / KM821837
+KM821838 / KM821839
+KM821840 / KM821841
+KM821842 / KM821843
+KM821844 / KM821845
+KM821846 / KM821847
+KM821849 / KM821850
+KM821851 / KM821852
+KM821853 / KM821854
+KM821855 / KM821856
+KM821858 / KM821859
+KM821860 / KM821861
+KM821862 / KM821863
+KM821864 / KM821865
+KM821866 / KM821867
+KM821868 / KM821869
+KM821870 / KM821871
+KM821873 / KM821874
+KM821875 / KM821876
+KM821879 / KM821880</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -4202,26 +6498,62 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA26" t="inlineStr">
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>KM821834 / KM821835
+KM821836 / KM821837
+KM821838 / KM821839
+KM821840 / KM821841
+KM821842 / KM821843
+KM821844 / KM821845
+KM821846 / KM821847
+KM821849 / KM821850
+KM821851 / KM821852
+KM821853 / KM821854
+KM821855 / KM821856
+KM821858 / KM821859
+KM821860 / KM821861
+KM821862 / KM821863
+KM821864 / KM821865
+KM821866 / KM821867
+KM821868 / KM821869
+KM821870 / KM821871
+KM821873 / KM821874
+KM821875 / KM821876
+KM821879 / KM821880</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
         <is>
           <t>Homo sapiens and Rodent</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
+      <c r="AF26" t="inlineStr">
         <is>
           <t>blood and tissue</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>blood and tissue</t>
-        </is>
-      </c>
-      <c r="AD26" t="n">
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>Blood and tissue</t>
+        </is>
+      </c>
+      <c r="AH26" t="n">
         <v>1991</v>
       </c>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="n">
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="n">
         <v>25</v>
       </c>
     </row>
@@ -4348,26 +6680,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA27" t="inlineStr">
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr">
         <is>
           <t>Rodent</t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr">
+      <c r="AF27" t="inlineStr">
         <is>
           <t>lung and tissue</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>lung and tissue</t>
-        </is>
-      </c>
-      <c r="AD27" t="n">
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>Lung and tissue</t>
+        </is>
+      </c>
+      <c r="AH27" t="n">
         <v>2013</v>
       </c>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="n">
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="n">
         <v>26</v>
       </c>
     </row>
@@ -4496,26 +6836,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA28" t="inlineStr">
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr">
         <is>
           <t>Rodent</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr">
+      <c r="AF28" t="inlineStr">
         <is>
           <t>spleen and tissue</t>
         </is>
       </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>spleen and tissue</t>
-        </is>
-      </c>
-      <c r="AD28" t="n">
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>Spleen and tissue</t>
+        </is>
+      </c>
+      <c r="AH28" t="n">
         <v>2009</v>
       </c>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="n">
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="n">
         <v>27</v>
       </c>
     </row>
@@ -4569,7 +6917,70 @@
       <c r="K29" t="inlineStr">
         <is>
           <t>The GenBank accession numbers were referenced under BioProject IDs:
-PRJNA254017 (Lassa virus).</t>
+PRJNA254017 (Lassa virus). "SRX719120
+SRX719079
+SRX719056
+SRX718926
+SRX718761
+SRX719205
+SRX719063
+SRX719134
+SRX719117
+SRX718979
+SRX718802
+SRX718860
+SRX719192
+SRX718749
+SRX718789
+SRX718809
+SRX719159
+SRX718836
+SRX733666
+SRX733667
+SRX733668
+SRX733669
+SRX733670
+SRX733671
+SRX733672
+SRX733673
+SRX733674
+SRX733675
+SRX733676
+SRX733677
+SRX719168
+SRX727329
+SRX733690
+SRX733681
+SRX733660
+SRX733656
+SRX733661
+SRX733657
+SRX733662
+SRX733658
+SRX733663
+SRX733659
+SRX727318
+SRX733664
+SRX733665
+SRX727310
+SRX734464
+SRX731079
+SRX719163
+SRX718749
+SRX727274
+SRX718860
+SRX718809
+SRX733692
+SRX733678
+SRX733679
+SRX733682
+SRX733680
+SRX733683
+SRX733685
+SRX733686
+SRX733687
+SRX733688
+SRX733684"</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -4639,24 +7050,103 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA29" t="inlineStr">
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Contains list of seq downloaded from GB</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>SRX719120
+SRX719079
+SRX719056
+SRX718926
+SRX718761
+SRX719205
+SRX719063
+SRX719134
+SRX719117
+SRX718979
+SRX718802
+SRX718860
+SRX719192
+SRX718749
+SRX718789
+SRX718809
+SRX719159
+SRX718836
+SRX733666
+SRX733667
+SRX733668
+SRX733669
+SRX733670
+SRX733671
+SRX733672
+SRX733673
+SRX733674
+SRX733675
+SRX733676
+SRX733677
+SRX719168
+SRX727329
+SRX733690
+SRX733681
+SRX733660
+SRX733656
+SRX733661
+SRX733657
+SRX733662
+SRX733658
+SRX733663
+SRX733659
+SRX727318
+SRX733664
+SRX733665
+SRX727310
+SRX734464
+SRX731079
+SRX719163
+SRX718749
+SRX727274
+SRX718860
+SRX718809
+SRX733692
+SRX733678
+SRX733679
+SRX733682
+SRX733680
+SRX733683
+SRX733685
+SRX733686
+SRX733687
+SRX733688
+SRX733684</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
         <is>
           <t>Homo sapiens and Rodent</t>
         </is>
       </c>
-      <c r="AB29" t="inlineStr">
+      <c r="AF29" t="inlineStr">
         <is>
           <t>blood and tissue</t>
         </is>
       </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>blood and tissue</t>
-        </is>
-      </c>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="n">
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>Blood and tissue</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="n">
         <v>28</v>
       </c>
     </row>
@@ -4776,24 +7266,32 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA30" t="inlineStr">
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr">
         <is>
           <t>Rodent</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
+      <c r="AF30" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="n">
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="n">
         <v>29</v>
       </c>
     </row>
@@ -4848,7 +7346,104 @@
           <t>Guinea, Côte d'Ivoire</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>AF182219
+AF182220
+AF182221
+AF182222
+AF182223
+AF182224
+AF182225
+AF182226
+AF182227
+AF182228
+AF182229
+AF182230
+AF182231
+AF182232
+AF182233
+AF182234
+AF182235
+AF182236
+AF182237
+AF182238
+AF182239
+AF182240
+AF182241
+AF182242
+AF182243
+AF182244
+AF182245
+AF182246
+AF182247
+AF182248
+AF182249
+AF182250
+AF182251
+AF182252
+AF182253
+AF182254
+AF182255
+AF182256
+AF182257
+AF182258
+AF182259
+AF182260
+AF182261
+AF182262
+AF182263
+AF182264
+AF182265
+AF182266
+AF182267
+AF182268
+AF182269
+AF182270
+AF182271
+AF182272
+AF246121
+AF333969
+AY179173
+DQ832667
+DQ832668
+DQ832669
+DQ832670
+DQ832671
+DQ832672
+DQ832673
+DQ832674
+DQ832675
+DQ832676
+DQ832677
+DQ832678
+DQ832679
+DQ832680
+DQ832681
+DQ832682
+DQ832683
+DQ832684
+DQ832685
+DQ832686
+DQ832687
+DQ832688
+DQ832689
+DQ832690
+DQ832691
+DQ832692
+DQ832693
+DQ832694
+DQ832695
+DQ832696
+DQ832697
+DQ832698
+DQ832699
+DQ832700
+NC004296
+LIB1269
+U8004</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>Sanger</t>
@@ -4916,26 +7511,135 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA31" t="inlineStr">
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>AF182219
+AF182220
+AF182221
+AF182222
+AF182223
+AF182224
+AF182225
+AF182226
+AF182227
+AF182228
+AF182229
+AF182230
+AF182231
+AF182232
+AF182233
+AF182234
+AF182235
+AF182236
+AF182237
+AF182238
+AF182239
+AF182240
+AF182241
+AF182242
+AF182243
+AF182244
+AF182245
+AF182246
+AF182247
+AF182248
+AF182249
+AF182250
+AF182251
+AF182252
+AF182253
+AF182254
+AF182255
+AF182256
+AF182257
+AF182258
+AF182259
+AF182260
+AF182261
+AF182262
+AF182263
+AF182264
+AF182265
+AF182266
+AF182267
+AF182268
+AF182269
+AF182270
+AF182271
+AF182272
+AF246121
+AF333969
+AY179173
+DQ832667
+DQ832668
+DQ832669
+DQ832670
+DQ832671
+DQ832672
+DQ832673
+DQ832674
+DQ832675
+DQ832676
+DQ832677
+DQ832678
+DQ832679
+DQ832680
+DQ832681
+DQ832682
+DQ832683
+DQ832684
+DQ832685
+DQ832686
+DQ832687
+DQ832688
+DQ832689
+DQ832690
+DQ832691
+DQ832692
+DQ832693
+DQ832694
+DQ832695
+DQ832696
+DQ832697
+DQ832698
+DQ832699
+DQ832700
+NC004296
+LIB1269
+U8004</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
         <is>
           <t>Rodent</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
+      <c r="AF31" t="inlineStr">
         <is>
           <t>tissue</t>
         </is>
       </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>tissue</t>
-        </is>
-      </c>
-      <c r="AD31" t="n">
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>Tissue</t>
+        </is>
+      </c>
+      <c r="AH31" t="n">
         <v>2004</v>
       </c>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="n">
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="n">
         <v>30</v>
       </c>
     </row>
@@ -5062,26 +7766,54 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA32" t="inlineStr">
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Yes - also mentioned in paper</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>Josiah - GenBank accession number: AF385109
+NL - GenBank accession number: AF385110
+Z148 - GenBank accession number: AF385111
+Macenta - GenBank accession number: AF385112
+Ba366 - GenBank accession number: AF385113
+AV - GenBank accession number: AF385114
+CSF - GenBank accession number: AF385115
+Nig08-A18 - GenBank accession number: EU169688
+Nig08-A19 - GenBank accession number: EU169689
+Nig08-A37 - GenBank accession number: EU169690
+Nig08-A41 - GenBank accession number: EU169691
+Nig08-A47 - GenBank accession number: EU169692
+Nig08-04 - GenBank accession number: EU169693</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
         <is>
           <t>Homo sapiens and Rodent</t>
         </is>
       </c>
-      <c r="AB32" t="inlineStr">
+      <c r="AF32" t="inlineStr">
         <is>
           <t>blood and tissue</t>
         </is>
       </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>blood and tissue</t>
-        </is>
-      </c>
-      <c r="AD32" t="n">
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>Blood and tissue</t>
+        </is>
+      </c>
+      <c r="AH32" t="n">
         <v>2006</v>
       </c>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="n">
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="n">
         <v>31</v>
       </c>
     </row>
@@ -5200,26 +7932,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA33" t="inlineStr">
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB33" t="inlineStr">
+      <c r="AF33" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD33" t="n">
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH33" t="n">
         <v>2010</v>
       </c>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="n">
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="n">
         <v>32</v>
       </c>
     </row>
@@ -5346,26 +8086,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA34" t="inlineStr">
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr">
         <is>
           <t>Rodent</t>
         </is>
       </c>
-      <c r="AB34" t="inlineStr">
+      <c r="AF34" t="inlineStr">
         <is>
           <t>blood and liver and lung and tissue</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>blood and liver and lung and tissue</t>
-        </is>
-      </c>
-      <c r="AD34" t="n">
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>Blood and liver and lung and tissue</t>
+        </is>
+      </c>
+      <c r="AH34" t="n">
         <v>2009</v>
       </c>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="n">
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="n">
         <v>33</v>
       </c>
     </row>
@@ -5492,26 +8240,49 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA35" t="inlineStr">
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>Nig05-SE40 - GenBank accession numbers: GU481058, GU481059
+Nig05-043 - GenBank accession numbers: GU481056, GU481057
+Nig08-03 - GenBank accession numbers: GU481066, GU481067
+Nig08-04 - GenBank accession numbers: GU481068, GU481069
+Nig08-02 - GenBank accession numbers: GU481063 to GU481065
+Nig07-05 - GenBank accession numbers: GU481060 to GU481062
+Nig08-A18 - GenBank accession numbers: GU481070, GU481071
+Nig08-A19 - GenBank accession numbers: GU481072, GU481073</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB35" t="inlineStr">
+      <c r="AF35" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD35" t="n">
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH35" t="n">
         <v>2006</v>
       </c>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="n">
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="n">
         <v>34</v>
       </c>
     </row>
@@ -5638,26 +8409,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA36" t="inlineStr">
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr">
         <is>
           <t>Rodent</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
+      <c r="AF36" t="inlineStr">
         <is>
           <t>blood and tissue</t>
         </is>
       </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>blood and tissue</t>
-        </is>
-      </c>
-      <c r="AD36" t="n">
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>Blood and tissue</t>
+        </is>
+      </c>
+      <c r="AH36" t="n">
         <v>2004</v>
       </c>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="n">
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="n">
         <v>35</v>
       </c>
     </row>
@@ -5791,26 +8570,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA37" t="inlineStr">
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr">
         <is>
           <t>Rodent</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
+      <c r="AF37" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr">
+      <c r="AG37" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AD37" t="n">
+      <c r="AH37" t="n">
         <v>1977</v>
       </c>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="n">
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="n">
         <v>36</v>
       </c>
     </row>
@@ -5938,26 +8725,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA38" t="inlineStr">
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB38" t="inlineStr">
+      <c r="AF38" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD38" t="n">
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH38" t="n">
         <v>2004</v>
       </c>
-      <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="n">
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="n">
         <v>37</v>
       </c>
     </row>
@@ -6084,26 +8879,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA39" t="inlineStr">
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB39" t="inlineStr">
+      <c r="AF39" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD39" t="n">
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH39" t="n">
         <v>2004</v>
       </c>
-      <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="n">
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="n">
         <v>38</v>
       </c>
     </row>
@@ -6230,26 +9033,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA40" t="inlineStr">
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB40" t="inlineStr">
+      <c r="AF40" t="inlineStr">
         <is>
           <t>csf</t>
         </is>
       </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>csf</t>
-        </is>
-      </c>
-      <c r="AD40" t="n">
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>Csf</t>
+        </is>
+      </c>
+      <c r="AH40" t="n">
         <v>2000</v>
       </c>
-      <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="n">
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="n">
         <v>39</v>
       </c>
     </row>
@@ -6380,26 +9191,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA41" t="inlineStr">
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB41" t="inlineStr">
+      <c r="AF41" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD41" t="n">
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH41" t="n">
         <v>2000</v>
       </c>
-      <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="n">
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="n">
         <v>40</v>
       </c>
     </row>
@@ -6530,26 +9349,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA42" t="inlineStr">
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr">
         <is>
           <t>Homo sapiens and Rodent</t>
         </is>
       </c>
-      <c r="AB42" t="inlineStr">
+      <c r="AF42" t="inlineStr">
         <is>
           <t>blood and tissue</t>
         </is>
       </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>blood and tissue</t>
-        </is>
-      </c>
-      <c r="AD42" t="n">
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>Blood and tissue</t>
+        </is>
+      </c>
+      <c r="AH42" t="n">
         <v>1984</v>
       </c>
-      <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="n">
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="n">
         <v>41</v>
       </c>
     </row>
@@ -6684,26 +9511,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA43" t="inlineStr">
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AB43" t="inlineStr">
+      <c r="AF43" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AC43" t="inlineStr">
+      <c r="AG43" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AD43" t="n">
+      <c r="AH43" t="n">
         <v>1997</v>
       </c>
-      <c r="AE43" t="inlineStr"/>
-      <c r="AF43" t="n">
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="n">
         <v>42</v>
       </c>
     </row>
@@ -6834,26 +9669,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA44" t="inlineStr">
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB44" t="inlineStr">
+      <c r="AF44" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AC44" t="inlineStr">
+      <c r="AG44" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AD44" t="n">
+      <c r="AH44" t="n">
         <v>1997</v>
       </c>
-      <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="n">
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="n">
         <v>43</v>
       </c>
     </row>
@@ -6985,26 +9828,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA45" t="inlineStr">
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB45" t="inlineStr">
+      <c r="AF45" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AC45" t="inlineStr">
+      <c r="AG45" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AD45" t="n">
+      <c r="AH45" t="n">
         <v>1980</v>
       </c>
-      <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="n">
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="n">
         <v>44</v>
       </c>
     </row>
@@ -7136,26 +9987,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA46" t="inlineStr">
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB46" t="inlineStr">
+      <c r="AF46" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AC46" t="inlineStr">
+      <c r="AG46" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AD46" t="n">
+      <c r="AH46" t="n">
         <v>1989</v>
       </c>
-      <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="n">
+      <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="n">
         <v>45</v>
       </c>
     </row>
@@ -7287,26 +10146,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA47" t="inlineStr">
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB47" t="inlineStr">
+      <c r="AF47" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AC47" t="inlineStr">
+      <c r="AG47" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AD47" t="n">
+      <c r="AH47" t="n">
         <v>1976</v>
       </c>
-      <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="n">
+      <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" t="n">
         <v>46</v>
       </c>
     </row>
@@ -7433,26 +10300,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA48" t="inlineStr">
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB48" t="inlineStr">
+      <c r="AF48" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AC48" t="inlineStr">
+      <c r="AG48" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AD48" t="n">
+      <c r="AH48" t="n">
         <v>1980</v>
       </c>
-      <c r="AE48" t="inlineStr"/>
-      <c r="AF48" t="n">
+      <c r="AI48" t="inlineStr"/>
+      <c r="AJ48" t="n">
         <v>47</v>
       </c>
     </row>
@@ -7575,26 +10450,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA49" t="inlineStr">
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB49" t="inlineStr">
+      <c r="AF49" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AC49" t="inlineStr">
+      <c r="AG49" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AD49" t="n">
+      <c r="AH49" t="n">
         <v>1980</v>
       </c>
-      <c r="AE49" t="inlineStr"/>
-      <c r="AF49" t="n">
+      <c r="AI49" t="inlineStr"/>
+      <c r="AJ49" t="n">
         <v>48</v>
       </c>
     </row>
@@ -7721,26 +10604,34 @@
           <t>Unlikely</t>
         </is>
       </c>
-      <c r="AA50" t="inlineStr">
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB50" t="inlineStr">
+      <c r="AF50" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD50" t="n">
+      <c r="AG50" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH50" t="n">
         <v>2012</v>
       </c>
-      <c r="AE50" t="inlineStr"/>
-      <c r="AF50" t="n">
+      <c r="AI50" t="inlineStr"/>
+      <c r="AJ50" t="n">
         <v>49</v>
       </c>
     </row>
@@ -7855,24 +10746,32 @@
           <t>Unlikely</t>
         </is>
       </c>
-      <c r="AA51" t="inlineStr">
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr">
         <is>
           <t>monkey (vero cells)</t>
         </is>
       </c>
-      <c r="AB51" t="inlineStr">
+      <c r="AF51" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AC51" t="inlineStr">
+      <c r="AG51" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr"/>
-      <c r="AF51" t="n">
+      <c r="AH51" t="inlineStr"/>
+      <c r="AI51" t="inlineStr"/>
+      <c r="AJ51" t="n">
         <v>50</v>
       </c>
     </row>
@@ -7995,26 +10894,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA52" t="inlineStr">
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB52" t="inlineStr">
+      <c r="AF52" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AC52" t="inlineStr">
+      <c r="AG52" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AD52" t="n">
+      <c r="AH52" t="n">
         <v>2018</v>
       </c>
-      <c r="AE52" t="inlineStr"/>
-      <c r="AF52" t="n">
+      <c r="AI52" t="inlineStr"/>
+      <c r="AJ52" t="n">
         <v>51</v>
       </c>
     </row>
@@ -8145,26 +11052,260 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA53" t="inlineStr">
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>Contains list of seq downloaded from GB</t>
+        </is>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>AF181854.1
+AF246121.2
+GU830839.1
+AF333969.1
+KM821794.1
+KM821796.1
+KM821798.1
+KM821800.1
+KM821802.1
+KM821804.1
+KM821806.1
+KM821808.1
+KM821810.1
+KM821812.1
+KM821814.1
+KM821815.1
+KM821816.1
+KM821818.1
+KM821820.1
+KM821822.1
+KM821824.1
+KM821826.1
+KM821828.1
+KM821830.1
+KM821832.1
+KM821833.1
+KM821835.1
+KM821837.1
+KM821839.1
+KM821841.1
+KM821843.1
+KM821845.1
+KM821847.1
+KM821848.1
+KM821850.1
+KM821852.1
+KM821854.1
+KM821856.1
+KM821857.1
+KM821859.1
+KM821861.1
+KM821863.1
+KM821865.1
+KM821867.1
+KM821869.1
+KM821871.1
+KM821872.1
+KM821874.1
+KM821876.1
+KM821877.1
+KM821878.1
+KM821880.1
+KM821882.1
+KM821884.1
+KM821885.1
+KM821886.1
+KM821887.1
+KM821889.1
+KM821890.1
+KM821892.1
+KM821894.1
+KM821895.1
+KM821897.1
+KM821899.1
+KM821900.1
+KM821902.1
+KM821904.1
+KM821906.1
+KM821907.1
+KM821909.1
+KM821910.1
+KM821773.1
+KM821775.1
+KM821777.1
+KM821779.1
+KM821781.1
+KM821783.1
+KM821785.1
+KM821787.1
+KM821789.1
+KM821790.1
+KM821792.1
+X52400.1
+KM821912.1
+KM821914.1
+KM821916.1
+KM821918.1
+KM821920.1
+KM821922.1
+KM821924.1
+KM821925.1
+KM821927.1
+KM821929.1
+KM821931.1
+KM821933.1
+KM821935.1
+KM821937.1
+KM821939.1
+KM821941.1
+KM821943.1
+KM821945.1
+KM821947.1
+KM821949.1
+KM821951.1
+KM821953.1
+KM821955.1
+KM821957.1
+KM821959.1
+KM821961.1
+KM821963.1
+KM821965.1
+KM821967.1
+KM821969.1
+KM821971.1
+KM821972.1
+KM821974.1
+KM821976.1
+KM821977.1
+KM821979.1
+KM821980.1
+KM821982.1
+KM821984.1
+KM821986.1
+KM821988.1
+KM821990.1
+KM821992.1
+KM821994.1
+KM821996.1
+KM821998.1
+AY628201.1
+GU481068.1
+GU481070.1
+GU481072.1
+GU481074.1
+GU481076.1
+GU481078.1
+AY179173.1
+KM822128.1
+KM822130.1
+KM822132.1
+M33879.1
+MH157052.1
+MH157050.1
+MH157046.1
+MH157045.1
+MH157044.1
+MH157041.1
+MH157039.1
+MH157038.1
+MH157037.1
+MH157035.1
+MH157034.1
+MH157032.1
+MH157030.1
+MH157028.1
+MH053589.1
+MH053588.1
+MH053586.1
+MH053584.1
+MH053582.1
+MH053580.1
+MH053578.1
+MH053577.1
+MH053576.1
+MH053575.1
+MH053574.1
+MH053573.1
+MH053572.1
+MH053567.1
+MH053564.1
+MH053562.1
+MH053561.1
+MH053560.1
+MH053559.1
+MH053557.1
+MH053555.1
+MH053554.1
+MH053553.1
+MH053552.1
+MH053551.1
+MH053545.1
+MH053544.1
+MH053538.1
+MH053537.1
+MH053536.1
+MH053533.1
+MH053531.1
+MH053528.1
+MH053527.1
+MH053526.1
+MH053523.1
+MH053522.1
+MH053518.1
+MH053514.1
+MH053513.1
+MH053511.1
+MH053506.1
+MH053502.1
+MH053501.1
+MH053498.1
+MH053497.1
+MH053493.1
+MH053491.1
+MH053490.1
+MH053488.1
+MH053487.1
+MH053485.1
+MH053484.1
+MH053483.1
+MH053482.1
+MH053480.1
+MH053478.1
+MH053476.1
+MH053475.1
+MH053474.1
+MH053472.1
+MH053470.1
+MH053468.1
+MH053463.1</t>
+        </is>
+      </c>
+      <c r="AE53" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB53" t="inlineStr">
+      <c r="AF53" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD53" t="n">
+      <c r="AG53" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH53" t="n">
         <v>2018</v>
       </c>
-      <c r="AE53" t="inlineStr"/>
-      <c r="AF53" t="n">
+      <c r="AI53" t="inlineStr"/>
+      <c r="AJ53" t="n">
         <v>52</v>
       </c>
     </row>
@@ -8292,26 +11433,38 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA54" t="inlineStr">
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>Contains list of seq downloaded from GB</t>
+        </is>
+      </c>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB54" t="inlineStr">
+      <c r="AF54" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD54" t="n">
+      <c r="AG54" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH54" t="n">
         <v>2019</v>
       </c>
-      <c r="AE54" t="inlineStr"/>
-      <c r="AF54" t="n">
+      <c r="AI54" t="inlineStr"/>
+      <c r="AJ54" t="n">
         <v>53</v>
       </c>
     </row>
@@ -8368,7 +11521,76 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Supplementary Table 1</t>
+          <t>MG812649, MG812648 - 803204 (Liberia, 1972)
+MG812646, MG812647 - 803209 (Sierra Leone, 1975)
+MG812644, MG812645 - 806387 (Guinea, 1981)
+MG812642, MG812643 - 806568 (Sierra Leone, 1979)
+MG812640, MG812641 - 806593 (Nigeria, 1989)
+MG812638, MG812639 - 806827 (Sierra Leone, 1977)
+MG812637, MG812636 - 806829 (Liberia, 1981)
+MG812634, MG812635 - 807876 (Nigeria, 1981)
+MG812633, MG812632 - 807978 (Liberia, 1981)
+MG812630, MG812631 - 807987 (Liberia, 1981)
+MG812684, MG812685 - 807988 (Guinea, 1996)
+MG812682, MG812683 - 808714 (Sierra Leone, 1980)
+MG812678, MG812679 - 811606 (Liberia, 2010)
+MG812674, MG812675 - 812285 (Nigeria, 1976)
+MG812659, MG812658 - 812337 (Liberia, 2014)
+MG812651, MG812650 - 812673 (Liberia, 2015)
+GU979513, GU830839 - BA366 (Guinea, 2003)
+KM821795, KM821796 - G1190-SLE-2010 (Sierra Leone, 2010)
+KM821797, KM821798 - G1200-LIB-2010 (Liberia, 2010)
+KM821799, KM821800 - G1442-SLE-2011 (Sierra Leone, 2011)
+KM821801, KM821802 - G1529-SLE-2011 (Sierra Leone, 2011)
+KM821805, KM821806 - G1646-SLE-2011 (Sierra Leone, 2011)
+KM821811, KM821812 - G1774-SLE-2011 (Sierra Leone, 2011)
+KM821813, KM821814 - G1792-SLE-2011 (Sierra Leone, 2011)
+KM821817, KM821818 - G1959-SLE-2011 (Sierra Leone, 2011)
+KM821819, KM821820 - G1960-SLE-2011 (Sierra Leone, 2011)
+KM821821, KM821822 - G2141-SLE-2011 (Sierra Leone, 2011)
+KM821823, KM821824 - G2147-SLE-2011 (Sierra Leone, 2011)
+KM821825, KM821826 - G2165-SLE-2011 (Sierra Leone, 2011)
+KM821827, KM821828 - G2184-SLE-2011 (Sierra Leone, 2011)
+KM821829, KM821830 - G2197-SLE-2011 (Sierra Leone, 2011)
+KM821831, KM821832 - G2222-SLE-2011 (Sierra Leone, 2011)
+KM821834, KM821835 - G2259-SLE-2012 (Sierra Leone, 2012)
+KM821836, KM821837 - G2263-SLE-2012 (Sierra Leone, 2012)
+KM821838, KM821839 - G2280-SLE-2012 (Sierra Leone, 2012)
+KM821840, KM821841 - G2295-SLE-2012 (Sierra Leone, 2012)
+KM821846, KM821847 - G2363-SLE-2012 (Sierra Leone, 2012)
+KM821849, KM821850 - G2392-SLE-2012 (Sierra Leone, 2012)
+KM821851, KM821852 - G2405-SLE-2012 (Sierra Leone, 2012)
+KM821853, KM821854 - G2427-SLE-2012 (Sierra Leone, 2012)
+KM821855, KM821856 - G2431-SLE-2012 (Sierra Leone, 2012)
+KM821858, KM821859 - G2554-SLE-2012 (Sierra Leone, 2012)
+KM821860, KM821861 - G2557-SLE-2012 (Sierra Leone, 2012)
+KM821862, KM821863 - G2565-SLE-2012 (Sierra Leone, 2012)
+KM821864, KM821865 - G2587-SLE-2012 (Sierra Leone, 2012)
+KM821866, KM821867 - G2612-SLE-2012 (Sierra Leone, 2012)
+KM821870, KM821871 - G2723-SLE-2012 (Sierra Leone, 2012)
+KM821873, KM821874 - G2868-SLE-2012 (Sierra Leone, 2012)
+KM821879, KM821880 - G2944-SLE-2012 (Sierra Leone, 2012)
+KM821881, KM821882 - G3010-SLE-2013 (Sierra Leone, 2013)
+KM821883, KM821884 - G3016-SLE-2013 (Sierra Leone, 2013)
+KM821888, KM821889 - G3106-SLE-2013 (Sierra Leone, 2013)
+KM821891, KM821892 - G3148-SLE-2013 (Sierra Leone, 2013)
+KM821893, KM821894 - G3151-SLE-2013 (Sierra Leone, 2013)
+KM821896, KM821897 - G3170-SLE-2013 (Sierra Leone, 2013)
+KM821898, KM821899 - G3206-SLE-2013 (Sierra Leone, 2013)
+KM821901, KM821902 - G3229-SLE-2013 (Sierra Leone, 2013)
+KM821903, KM821904 - G3234-SLE-2013 (Sierra Leone, 2013)
+KM821905, KM821906 - G3248-SLE-2013 (Sierra Leone, 2013)
+KM821908, KM821909 - G3278-SLE-2013 (Sierra Leone, 2013)
+KM821772, KM821773 - G502-SLE-2009 (Sierra Leone, 2009)
+KM821774, KM821775 - G503-SLE-2009 (Sierra Leone, 2009)
+KM821776, KM821777 - G610-SLE-2009 (Sierra Leone, 2009)
+KM821778, KM821779 - G636-SLE-2009 (Sierra Leone, 2009)
+KM821780, KM821781 - G676-SLE-2009 (Sierra Leone, 2009)
+KM821782, KM821783 - G692-SLE-2009 (Sierra Leone, 2009)
+KU978808, KU978807 - Guinea Faranah (Guinea)
+KU978809, KU978810 - GUINEA Z-185a (Guinea)
+MH887898, MH887793 - H.sapiens-wt/NGA/2018/LASV0065-ONDO (Nigeria, 2017)
+MH887923, MH887881 - H.sapiens-wt/NGA/2018/LASV0066-EDO (Nigeria, 2017)</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
@@ -8422,26 +11644,111 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA55" t="inlineStr">
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>Contains list of seq downloaded from GB</t>
+        </is>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>MG812649, MG812648 - 803204 (Liberia, 1972)
+MG812646, MG812647 - 803209 (Sierra Leone, 1975)
+MG812644, MG812645 - 806387 (Guinea, 1981)
+MG812642, MG812643 - 806568 (Sierra Leone, 1979)
+MG812640, MG812641 - 806593 (Nigeria, 1989)
+MG812638, MG812639 - 806827 (Sierra Leone, 1977)
+MG812637, MG812636 - 806829 (Liberia, 1981)
+MG812634, MG812635 - 807876 (Nigeria, 1981)
+MG812633, MG812632 - 807978 (Liberia, 1981)
+MG812630, MG812631 - 807987 (Liberia, 1981)
+MG812684, MG812685 - 807988 (Guinea, 1996)
+MG812682, MG812683 - 808714 (Sierra Leone, 1980)
+MG812678, MG812679 - 811606 (Liberia, 2010)
+MG812674, MG812675 - 812285 (Nigeria, 1976)
+MG812659, MG812658 - 812337 (Liberia, 2014)
+MG812651, MG812650 - 812673 (Liberia, 2015)
+GU979513, GU830839 - BA366 (Guinea, 2003)
+KM821795, KM821796 - G1190-SLE-2010 (Sierra Leone, 2010)
+KM821797, KM821798 - G1200-LIB-2010 (Liberia, 2010)
+KM821799, KM821800 - G1442-SLE-2011 (Sierra Leone, 2011)
+KM821801, KM821802 - G1529-SLE-2011 (Sierra Leone, 2011)
+KM821805, KM821806 - G1646-SLE-2011 (Sierra Leone, 2011)
+KM821811, KM821812 - G1774-SLE-2011 (Sierra Leone, 2011)
+KM821813, KM821814 - G1792-SLE-2011 (Sierra Leone, 2011)
+KM821817, KM821818 - G1959-SLE-2011 (Sierra Leone, 2011)
+KM821819, KM821820 - G1960-SLE-2011 (Sierra Leone, 2011)
+KM821821, KM821822 - G2141-SLE-2011 (Sierra Leone, 2011)
+KM821823, KM821824 - G2147-SLE-2011 (Sierra Leone, 2011)
+KM821825, KM821826 - G2165-SLE-2011 (Sierra Leone, 2011)
+KM821827, KM821828 - G2184-SLE-2011 (Sierra Leone, 2011)
+KM821829, KM821830 - G2197-SLE-2011 (Sierra Leone, 2011)
+KM821831, KM821832 - G2222-SLE-2011 (Sierra Leone, 2011)
+KM821834, KM821835 - G2259-SLE-2012 (Sierra Leone, 2012)
+KM821836, KM821837 - G2263-SLE-2012 (Sierra Leone, 2012)
+KM821838, KM821839 - G2280-SLE-2012 (Sierra Leone, 2012)
+KM821840, KM821841 - G2295-SLE-2012 (Sierra Leone, 2012)
+KM821846, KM821847 - G2363-SLE-2012 (Sierra Leone, 2012)
+KM821849, KM821850 - G2392-SLE-2012 (Sierra Leone, 2012)
+KM821851, KM821852 - G2405-SLE-2012 (Sierra Leone, 2012)
+KM821853, KM821854 - G2427-SLE-2012 (Sierra Leone, 2012)
+KM821855, KM821856 - G2431-SLE-2012 (Sierra Leone, 2012)
+KM821858, KM821859 - G2554-SLE-2012 (Sierra Leone, 2012)
+KM821860, KM821861 - G2557-SLE-2012 (Sierra Leone, 2012)
+KM821862, KM821863 - G2565-SLE-2012 (Sierra Leone, 2012)
+KM821864, KM821865 - G2587-SLE-2012 (Sierra Leone, 2012)
+KM821866, KM821867 - G2612-SLE-2012 (Sierra Leone, 2012)
+KM821870, KM821871 - G2723-SLE-2012 (Sierra Leone, 2012)
+KM821873, KM821874 - G2868-SLE-2012 (Sierra Leone, 2012)
+KM821879, KM821880 - G2944-SLE-2012 (Sierra Leone, 2012)
+KM821881, KM821882 - G3010-SLE-2013 (Sierra Leone, 2013)
+KM821883, KM821884 - G3016-SLE-2013 (Sierra Leone, 2013)
+KM821888, KM821889 - G3106-SLE-2013 (Sierra Leone, 2013)
+KM821891, KM821892 - G3148-SLE-2013 (Sierra Leone, 2013)
+KM821893, KM821894 - G3151-SLE-2013 (Sierra Leone, 2013)
+KM821896, KM821897 - G3170-SLE-2013 (Sierra Leone, 2013)
+KM821898, KM821899 - G3206-SLE-2013 (Sierra Leone, 2013)
+KM821901, KM821902 - G3229-SLE-2013 (Sierra Leone, 2013)
+KM821903, KM821904 - G3234-SLE-2013 (Sierra Leone, 2013)
+KM821905, KM821906 - G3248-SLE-2013 (Sierra Leone, 2013)
+KM821908, KM821909 - G3278-SLE-2013 (Sierra Leone, 2013)
+KM821772, KM821773 - G502-SLE-2009 (Sierra Leone, 2009)
+KM821774, KM821775 - G503-SLE-2009 (Sierra Leone, 2009)
+KM821776, KM821777 - G610-SLE-2009 (Sierra Leone, 2009)
+KM821778, KM821779 - G636-SLE-2009 (Sierra Leone, 2009)
+KM821780, KM821781 - G676-SLE-2009 (Sierra Leone, 2009)
+KM821782, KM821783 - G692-SLE-2009 (Sierra Leone, 2009)
+KU978808, KU978807 - Guinea Faranah (Guinea)
+KU978809, KU978810 - GUINEA Z-185a (Guinea)
+MH887898, MH887793 - H.sapiens-wt/NGA/2018/LASV0065-ONDO (Nigeria, 2017)
+MH887923, MH887881 - H.sapiens-wt/NGA/2018/LASV0066-EDO (Nigeria, 2017)</t>
+        </is>
+      </c>
+      <c r="AE55" t="inlineStr">
         <is>
           <t>Homo sapiens and Rodent</t>
         </is>
       </c>
-      <c r="AB55" t="inlineStr">
+      <c r="AF55" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AC55" t="inlineStr">
+      <c r="AG55" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AD55" t="n">
+      <c r="AH55" t="n">
         <v>2016</v>
       </c>
-      <c r="AE55" t="inlineStr"/>
-      <c r="AF55" t="n">
+      <c r="AI55" t="inlineStr"/>
+      <c r="AJ55" t="n">
         <v>54</v>
       </c>
     </row>
@@ -8565,24 +11872,32 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA56" t="inlineStr">
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr">
         <is>
           <t>guinea pigs, recombinant</t>
         </is>
       </c>
-      <c r="AB56" t="inlineStr">
+      <c r="AF56" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AC56" t="inlineStr">
+      <c r="AG56" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AD56" t="inlineStr"/>
-      <c r="AE56" t="inlineStr"/>
-      <c r="AF56" t="n">
+      <c r="AH56" t="inlineStr"/>
+      <c r="AI56" t="inlineStr"/>
+      <c r="AJ56" t="n">
         <v>55</v>
       </c>
     </row>
@@ -8640,7 +11955,31 @@
       <c r="K57" t="inlineStr">
         <is>
           <t>Josiah strain: HQ688673.1 (S segment), HQ688675.1 (L segment)
-NJ2015 strain: MG812679.1 (S segment), MG812678.1 (L segment).</t>
+NJ2015 strain: MG812679.1 (S segment), MG812678.1 (L segment). "810801-NIG-1974 - GenBank accession numbers: MG812681, MG812680
+806593-NIG-1989 - GenBank accession numbers: KU978811, KU978812
+807876-NIG-1981 - GenBank accession numbers: MG812635, MG812634
+803204-LBR-1972 - GenBank accession numbers: MG812648, MG812649
+803209-SLE-1975 - GenBank accession numbers: MG812647, MG812646
+806827-SLE-1977 - GenBank accession numbers: MG812639, MG812638
+806568-SLE-1979 - GenBank accession numbers: MG812643, MG812642
+806829-LBR-1981 - GenBank accession numbers: MG812636, MG812637
+Guinea Faranah - GenBank accession numbers: KU978807, KU978808
+G502-SLE-2009 - GenBank accession numbers: KM821773, KM821772
+G692-SLE-2009 - GenBank accession numbers: KM821783, KM821782
+L395-SLE-2009 - GenBank accession numbers: KM822115, KM822114
+811606-LBR-USA-2010 - GenBank accession numbers: MG812679, MG812678
+G1180-SLE-2010 - GenBank accession numbers: KM821794, KM821793
+G1442-SLE-2011 - GenBank accession numbers: KM821800, KM821799
+G2222-SLE-2011 - GenBank accession numbers: KM821832, KM821831
+G2259-SLE-2012 - GenBank accession numbers: KM821835, KM821834
+LM779-SLE-2012 - GenBank accession numbers: KM822126, KM822125
+G3010-SLE-2013 - GenBank accession numbers: KM821882, KM821881
+812337-LBR-USA-2014 - GenBank accession numbers: MG812658, MG812659
+812673-LBR-USA-2015 - GenBank accession numbers: MG812650, MG812651
+Togo/2016/7082 - GenBank accession numbers: KU961971, KU961972
+Mopeia AN20410 - GenBank accession numbers: AY772170, AY772169
+Mopeia Mozambique - GenBank accession numbers: DQ328874, DQ328875
+rJosiah - GenBank accession numbers: HQ688673, HQ688675"</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -8710,26 +12049,66 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA57" t="inlineStr">
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Contains list of seq downloaded from GB</t>
+        </is>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>810801-NIG-1974 - GenBank accession numbers: MG812681, MG812680
+806593-NIG-1989 - GenBank accession numbers: KU978811, KU978812
+807876-NIG-1981 - GenBank accession numbers: MG812635, MG812634
+803204-LBR-1972 - GenBank accession numbers: MG812648, MG812649
+803209-SLE-1975 - GenBank accession numbers: MG812647, MG812646
+806827-SLE-1977 - GenBank accession numbers: MG812639, MG812638
+806568-SLE-1979 - GenBank accession numbers: MG812643, MG812642
+806829-LBR-1981 - GenBank accession numbers: MG812636, MG812637
+Guinea Faranah - GenBank accession numbers: KU978807, KU978808
+G502-SLE-2009 - GenBank accession numbers: KM821773, KM821772
+G692-SLE-2009 - GenBank accession numbers: KM821783, KM821782
+L395-SLE-2009 - GenBank accession numbers: KM822115, KM822114
+811606-LBR-USA-2010 - GenBank accession numbers: MG812679, MG812678
+G1180-SLE-2010 - GenBank accession numbers: KM821794, KM821793
+G1442-SLE-2011 - GenBank accession numbers: KM821800, KM821799
+G2222-SLE-2011 - GenBank accession numbers: KM821832, KM821831
+G2259-SLE-2012 - GenBank accession numbers: KM821835, KM821834
+LM779-SLE-2012 - GenBank accession numbers: KM822126, KM822125
+G3010-SLE-2013 - GenBank accession numbers: KM821882, KM821881
+812337-LBR-USA-2014 - GenBank accession numbers: MG812658, MG812659
+812673-LBR-USA-2015 - GenBank accession numbers: MG812650, MG812651
+Togo/2016/7082 - GenBank accession numbers: KU961971, KU961972
+Mopeia AN20410 - GenBank accession numbers: AY772170, AY772169
+Mopeia Mozambique - GenBank accession numbers: DQ328874, DQ328875
+rJosiah - GenBank accession numbers: HQ688673, HQ688675</t>
+        </is>
+      </c>
+      <c r="AE57" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB57" t="inlineStr">
+      <c r="AF57" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AC57" t="inlineStr">
+      <c r="AG57" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AD57" t="n">
+      <c r="AH57" t="n">
         <v>1996</v>
       </c>
-      <c r="AE57" t="inlineStr"/>
-      <c r="AF57" t="n">
+      <c r="AI57" t="inlineStr"/>
+      <c r="AJ57" t="n">
         <v>56</v>
       </c>
     </row>
@@ -8852,26 +12231,34 @@
           <t>Unlikely</t>
         </is>
       </c>
-      <c r="AA58" t="inlineStr">
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr">
         <is>
           <t>Homo sapiens and Rodent</t>
         </is>
       </c>
-      <c r="AB58" t="inlineStr">
+      <c r="AF58" t="inlineStr">
         <is>
           <t>blood and tissue</t>
         </is>
       </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>blood and tissue</t>
-        </is>
-      </c>
-      <c r="AD58" t="n">
+      <c r="AG58" t="inlineStr">
+        <is>
+          <t>Blood and tissue</t>
+        </is>
+      </c>
+      <c r="AH58" t="n">
         <v>2018</v>
       </c>
-      <c r="AE58" t="inlineStr"/>
-      <c r="AF58" t="n">
+      <c r="AI58" t="inlineStr"/>
+      <c r="AJ58" t="n">
         <v>57</v>
       </c>
     </row>
@@ -8994,26 +12381,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA59" t="inlineStr">
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr">
         <is>
           <t>Rodent</t>
         </is>
       </c>
-      <c r="AB59" t="inlineStr">
+      <c r="AF59" t="inlineStr">
         <is>
           <t>blood and liver</t>
         </is>
       </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>blood and liver</t>
-        </is>
-      </c>
-      <c r="AD59" t="n">
+      <c r="AG59" t="inlineStr">
+        <is>
+          <t>Blood and liver</t>
+        </is>
+      </c>
+      <c r="AH59" t="n">
         <v>2010</v>
       </c>
-      <c r="AE59" t="inlineStr"/>
-      <c r="AF59" t="n">
+      <c r="AI59" t="inlineStr"/>
+      <c r="AJ59" t="n">
         <v>58</v>
       </c>
     </row>
@@ -9136,26 +12531,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA60" t="inlineStr">
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB60" t="inlineStr">
+      <c r="AF60" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD60" t="n">
+      <c r="AG60" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH60" t="n">
         <v>2010</v>
       </c>
-      <c r="AE60" t="inlineStr"/>
-      <c r="AF60" t="n">
+      <c r="AI60" t="inlineStr"/>
+      <c r="AJ60" t="n">
         <v>59</v>
       </c>
     </row>
@@ -9274,26 +12677,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA61" t="inlineStr">
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB61" t="inlineStr">
+      <c r="AF61" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD61" t="n">
+      <c r="AG61" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH61" t="n">
         <v>2010</v>
       </c>
-      <c r="AE61" t="inlineStr"/>
-      <c r="AF61" t="n">
+      <c r="AI61" t="inlineStr"/>
+      <c r="AJ61" t="n">
         <v>60</v>
       </c>
     </row>
@@ -9419,24 +12830,32 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA62" t="inlineStr">
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr">
         <is>
           <t>recombinant</t>
         </is>
       </c>
-      <c r="AB62" t="inlineStr">
+      <c r="AF62" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AC62" t="inlineStr">
+      <c r="AG62" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AD62" t="inlineStr"/>
-      <c r="AE62" t="inlineStr"/>
-      <c r="AF62" t="n">
+      <c r="AH62" t="inlineStr"/>
+      <c r="AI62" t="inlineStr"/>
+      <c r="AJ62" t="n">
         <v>61</v>
       </c>
     </row>
@@ -9555,24 +12974,32 @@
           <t>Unlikely</t>
         </is>
       </c>
-      <c r="AA63" t="inlineStr">
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr">
         <is>
           <t>recombinant</t>
         </is>
       </c>
-      <c r="AB63" t="inlineStr">
+      <c r="AF63" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AC63" t="inlineStr">
+      <c r="AG63" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AD63" t="inlineStr"/>
-      <c r="AE63" t="inlineStr"/>
-      <c r="AF63" t="n">
+      <c r="AH63" t="inlineStr"/>
+      <c r="AI63" t="inlineStr"/>
+      <c r="AJ63" t="n">
         <v>62</v>
       </c>
     </row>
@@ -9701,26 +13128,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA64" t="inlineStr">
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB64" t="inlineStr">
+      <c r="AF64" t="inlineStr">
         <is>
           <t>blood and csf</t>
         </is>
       </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>blood and csf</t>
-        </is>
-      </c>
-      <c r="AD64" t="n">
+      <c r="AG64" t="inlineStr">
+        <is>
+          <t>Blood and csf</t>
+        </is>
+      </c>
+      <c r="AH64" t="n">
         <v>2004</v>
       </c>
-      <c r="AE64" t="inlineStr"/>
-      <c r="AF64" t="n">
+      <c r="AI64" t="inlineStr"/>
+      <c r="AJ64" t="n">
         <v>63</v>
       </c>
     </row>
@@ -9853,26 +13288,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA65" t="inlineStr">
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr">
         <is>
           <t>Homo sapiens and Rodent</t>
         </is>
       </c>
-      <c r="AB65" t="inlineStr">
+      <c r="AF65" t="inlineStr">
         <is>
           <t>blood and csf and liver and spleen and tissue</t>
         </is>
       </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>blood and csf and liver and spleen and tissue</t>
-        </is>
-      </c>
-      <c r="AD65" t="n">
+      <c r="AG65" t="inlineStr">
+        <is>
+          <t>Blood and csf and liver and spleen and tissue</t>
+        </is>
+      </c>
+      <c r="AH65" t="n">
         <v>2002</v>
       </c>
-      <c r="AE65" t="inlineStr"/>
-      <c r="AF65" t="n">
+      <c r="AI65" t="inlineStr"/>
+      <c r="AJ65" t="n">
         <v>64</v>
       </c>
     </row>
@@ -9994,26 +13437,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA66" t="inlineStr">
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr"/>
+      <c r="AE66" t="inlineStr">
         <is>
           <t>Rodent</t>
         </is>
       </c>
-      <c r="AB66" t="inlineStr">
+      <c r="AF66" t="inlineStr">
         <is>
           <t>tissue</t>
         </is>
       </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>tissue</t>
-        </is>
-      </c>
-      <c r="AD66" t="n">
+      <c r="AG66" t="inlineStr">
+        <is>
+          <t>Tissue</t>
+        </is>
+      </c>
+      <c r="AH66" t="n">
         <v>1986</v>
       </c>
-      <c r="AE66" t="inlineStr"/>
-      <c r="AF66" t="n">
+      <c r="AI66" t="inlineStr"/>
+      <c r="AJ66" t="n">
         <v>65</v>
       </c>
     </row>
@@ -10128,26 +13579,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA67" t="inlineStr">
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr"/>
+      <c r="AD67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB67" t="inlineStr">
+      <c r="AF67" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD67" t="n">
+      <c r="AG67" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH67" t="n">
         <v>1982</v>
       </c>
-      <c r="AE67" t="inlineStr"/>
-      <c r="AF67" t="n">
+      <c r="AI67" t="inlineStr"/>
+      <c r="AJ67" t="n">
         <v>66</v>
       </c>
     </row>
@@ -10258,24 +13717,32 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA68" t="inlineStr">
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr"/>
+      <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr">
         <is>
           <t>Rodent</t>
         </is>
       </c>
-      <c r="AB68" t="inlineStr">
+      <c r="AF68" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AC68" t="inlineStr">
+      <c r="AG68" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AD68" t="inlineStr"/>
-      <c r="AE68" t="inlineStr"/>
-      <c r="AF68" t="n">
+      <c r="AH68" t="inlineStr"/>
+      <c r="AI68" t="inlineStr"/>
+      <c r="AJ68" t="n">
         <v>67</v>
       </c>
     </row>
@@ -10398,26 +13865,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA69" t="inlineStr">
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC69" t="inlineStr"/>
+      <c r="AD69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB69" t="inlineStr">
+      <c r="AF69" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC69" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD69" t="n">
+      <c r="AG69" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH69" t="n">
         <v>1991</v>
       </c>
-      <c r="AE69" t="inlineStr"/>
-      <c r="AF69" t="n">
+      <c r="AI69" t="inlineStr"/>
+      <c r="AJ69" t="n">
         <v>68</v>
       </c>
     </row>
@@ -10540,26 +14015,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA70" t="inlineStr">
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC70" t="inlineStr"/>
+      <c r="AD70" t="inlineStr"/>
+      <c r="AE70" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB70" t="inlineStr">
+      <c r="AF70" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC70" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD70" t="n">
+      <c r="AG70" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH70" t="n">
         <v>2006</v>
       </c>
-      <c r="AE70" t="inlineStr"/>
-      <c r="AF70" t="n">
+      <c r="AI70" t="inlineStr"/>
+      <c r="AJ70" t="n">
         <v>69</v>
       </c>
     </row>
@@ -10674,24 +14157,32 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA71" t="inlineStr">
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr">
         <is>
           <t>pig</t>
         </is>
       </c>
-      <c r="AB71" t="inlineStr">
+      <c r="AF71" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AC71" t="inlineStr">
+      <c r="AG71" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AD71" t="inlineStr"/>
-      <c r="AE71" t="inlineStr"/>
-      <c r="AF71" t="n">
+      <c r="AH71" t="inlineStr"/>
+      <c r="AI71" t="inlineStr"/>
+      <c r="AJ71" t="n">
         <v>70</v>
       </c>
     </row>
@@ -10742,7 +14233,14 @@
           <t>Nigeria, Togo</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>813877-NIG-1989 - GenBank accession numbers: OM140827, OM140826
+813888-NIG-2000 - GenBank accession numbers: OM140830, OM140831
+813878-NIG-2007 - GenBank accession numbers: OM140829, OM140828
+813878-NIG-2007 - GenBank accession numbers: OM140829, OM140828</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>NGS</t>
@@ -10806,24 +14304,43 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA72" t="inlineStr">
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>813877-NIG-1989 - GenBank accession numbers: OM140827, OM140826
+813888-NIG-2000 - GenBank accession numbers: OM140830, OM140831
+813878-NIG-2007 - GenBank accession numbers: OM140829, OM140828
+813878-NIG-2007 - GenBank accession numbers: OM140829, OM140828</t>
+        </is>
+      </c>
+      <c r="AE72" t="inlineStr">
         <is>
           <t>pig</t>
         </is>
       </c>
-      <c r="AB72" t="inlineStr">
+      <c r="AF72" t="inlineStr">
         <is>
           <t>blood and brain and kidney and liver and lung and spleen</t>
         </is>
       </c>
-      <c r="AC72" t="inlineStr">
-        <is>
-          <t>blood and brain and kidney and liver and lung and spleen</t>
-        </is>
-      </c>
-      <c r="AD72" t="inlineStr"/>
-      <c r="AE72" t="inlineStr"/>
-      <c r="AF72" t="n">
+      <c r="AG72" t="inlineStr">
+        <is>
+          <t>Blood and brain and kidney and liver and lung and spleen</t>
+        </is>
+      </c>
+      <c r="AH72" t="inlineStr"/>
+      <c r="AI72" t="inlineStr"/>
+      <c r="AJ72" t="n">
         <v>71</v>
       </c>
     </row>
@@ -10922,24 +14439,32 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA73" t="inlineStr">
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AB73" t="inlineStr">
+      <c r="AF73" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AC73" t="inlineStr">
+      <c r="AG73" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AD73" t="inlineStr"/>
-      <c r="AE73" t="inlineStr"/>
-      <c r="AF73" t="n">
+      <c r="AH73" t="inlineStr"/>
+      <c r="AI73" t="inlineStr"/>
+      <c r="AJ73" t="n">
         <v>72</v>
       </c>
     </row>
@@ -11062,33 +14587,41 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA74" t="inlineStr">
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="inlineStr"/>
+      <c r="AE74" t="inlineStr">
         <is>
           <t>mice</t>
         </is>
       </c>
-      <c r="AB74" t="inlineStr">
+      <c r="AF74" t="inlineStr">
         <is>
           <t>blood and tissue</t>
         </is>
       </c>
-      <c r="AC74" t="inlineStr">
-        <is>
-          <t>blood and tissue</t>
-        </is>
-      </c>
-      <c r="AD74" t="n">
+      <c r="AG74" t="inlineStr">
+        <is>
+          <t>Blood and tissue</t>
+        </is>
+      </c>
+      <c r="AH74" t="n">
         <v>2010</v>
       </c>
-      <c r="AE74" t="inlineStr"/>
-      <c r="AF74" t="n">
+      <c r="AI74" t="inlineStr"/>
+      <c r="AJ74" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Fatal Case of Lassa Fever, Bangolo District, C√¥te d'Ivoire, 2015.</t>
+          <t>Fatal Case of Lassa Fever, Bangolo District, Côte d'Ivoire, 2015.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -11204,26 +14737,34 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA75" t="inlineStr">
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC75" t="inlineStr"/>
+      <c r="AD75" t="inlineStr"/>
+      <c r="AE75" t="inlineStr">
         <is>
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="AB75" t="inlineStr">
+      <c r="AF75" t="inlineStr">
         <is>
           <t>blood</t>
         </is>
       </c>
-      <c r="AC75" t="inlineStr">
-        <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AD75" t="n">
+      <c r="AG75" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="AH75" t="n">
         <v>2015</v>
       </c>
-      <c r="AE75" t="inlineStr"/>
-      <c r="AF75" t="n">
+      <c r="AI75" t="inlineStr"/>
+      <c r="AJ75" t="n">
         <v>74</v>
       </c>
     </row>
@@ -11331,24 +14872,32 @@
           <t>Likely</t>
         </is>
       </c>
-      <c r="AA76" t="inlineStr">
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC76" t="inlineStr"/>
+      <c r="AD76" t="inlineStr"/>
+      <c r="AE76" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AB76" t="inlineStr">
+      <c r="AF76" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AC76" t="inlineStr">
+      <c r="AG76" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AD76" t="inlineStr"/>
-      <c r="AE76" t="inlineStr"/>
-      <c r="AF76" t="n">
+      <c r="AH76" t="inlineStr"/>
+      <c r="AI76" t="inlineStr"/>
+      <c r="AJ76" t="n">
         <v>75</v>
       </c>
     </row>
@@ -11432,24 +14981,28 @@
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr"/>
-      <c r="AA77" t="inlineStr">
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr">
         <is>
           <t>Rodent</t>
         </is>
       </c>
-      <c r="AB77" t="inlineStr">
+      <c r="AF77" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AC77" t="inlineStr">
+      <c r="AG77" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AD77" t="inlineStr"/>
-      <c r="AE77" t="inlineStr"/>
-      <c r="AF77" t="n">
+      <c r="AH77" t="inlineStr"/>
+      <c r="AI77" t="inlineStr"/>
+      <c r="AJ77" t="n">
         <v>76</v>
       </c>
     </row>
@@ -11542,24 +15095,28 @@
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr"/>
-      <c r="AA78" t="inlineStr">
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr">
         <is>
           <t>Rodent</t>
         </is>
       </c>
-      <c r="AB78" t="inlineStr">
+      <c r="AF78" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AC78" t="inlineStr">
+      <c r="AG78" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AD78" t="inlineStr"/>
-      <c r="AE78" t="inlineStr"/>
-      <c r="AF78" t="n">
+      <c r="AH78" t="inlineStr"/>
+      <c r="AI78" t="inlineStr"/>
+      <c r="AJ78" t="n">
         <v>77</v>
       </c>
     </row>
@@ -11646,24 +15203,28 @@
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr"/>
-      <c r="AA79" t="inlineStr">
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr"/>
+      <c r="AC79" t="inlineStr"/>
+      <c r="AD79" t="inlineStr"/>
+      <c r="AE79" t="inlineStr">
         <is>
           <t>Homo sapiens and Rodent</t>
         </is>
       </c>
-      <c r="AB79" t="inlineStr">
+      <c r="AF79" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AC79" t="inlineStr">
+      <c r="AG79" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AD79" t="inlineStr"/>
-      <c r="AE79" t="inlineStr"/>
-      <c r="AF79" t="n">
+      <c r="AH79" t="inlineStr"/>
+      <c r="AI79" t="inlineStr"/>
+      <c r="AJ79" t="n">
         <v>78</v>
       </c>
     </row>
